--- a/temp/bill.xlsx
+++ b/temp/bill.xlsx
@@ -62,7 +62,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -357,7 +357,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -423,8 +423,7 @@
         <v>110</v>
       </c>
       <c r="H5">
-        <f>SUM(H1:H4)</f>
-        <v>134</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -433,6 +432,10 @@
       </c>
       <c r="C6">
         <v>598</v>
+      </c>
+      <c r="H6">
+        <f>SUM(H1:H5)</f>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:10">

--- a/temp/bill.xlsx
+++ b/temp/bill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,23 @@
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hkd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hkd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -482,12 +499,124 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1">
+        <v>18</v>
+      </c>
+      <c r="D1">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="D4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6">
+        <f>SUM(A1:A5)</f>
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="D7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="D8">
+        <v>319</v>
+      </c>
+      <c r="G8">
+        <v>42</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="D9">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="D10">
+        <f>SUM(D1:D9)</f>
+        <v>5789</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>5789</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="M11">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="M12">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13">
+        <v>168</v>
+      </c>
+      <c r="M13">
+        <f>SUM(M10:M12)</f>
+        <v>6499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="E14">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/temp/bill.xlsx
+++ b/temp/bill.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>RMB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,26 @@
   </si>
   <si>
     <t>hkd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB 5620</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -614,6 +634,51 @@
     <row r="14" spans="1:13">
       <c r="E14">
         <v>500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28">
+        <v>5620</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30">
+        <v>190</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="E33">
+        <v>1060</v>
+      </c>
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34">
+        <v>5810</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36">
+        <v>6870</v>
+      </c>
+      <c r="B36" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/temp/bill.xlsx
+++ b/temp/bill.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="18315" windowHeight="8055" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>RMB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,6 +43,22 @@
   </si>
   <si>
     <t>RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2082-125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hkd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RNB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -521,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -689,12 +705,63 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:7">
+      <c r="G2">
+        <v>6870</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="G3">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2082</v>
+      </c>
+      <c r="G4">
+        <f>SUM(G2:G3)</f>
+        <v>8486</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1950</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="C15">
+        <v>8486</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>31514</v>
+      </c>
+      <c r="B20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
